--- a/mini-BBSの作成について.xlsx
+++ b/mini-BBSの作成について.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ゲスト\Documents\codes\practice2-todo-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EB1825-2CF2-450C-B11C-EFE950AF7917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281A1474-82E3-4A44-A4AB-563AA6128D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要について" sheetId="2" r:id="rId1"/>
@@ -275,16 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実行すると、database/migrationsに、「XXXX_XX_XX_XXXXXX_create_posts_table.php」が生成されます。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②マイグレーションファイルを編集</t>
     <rPh sb="14" eb="16">
       <t>ヘンシュウ</t>
@@ -496,14 +486,6 @@
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>public function index()
-{
-    $posts = Post::latest()-&gt;get();  // ← DB から投稿データ取得
-    return view('posts.index', compact('posts')); // ← 画面に渡す
-}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -645,12 +627,32 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>実行すると、database/migrationsに、
+「XXXX_XX_XX_XXXXXX_create_posts_table.php」が生成されます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public function index()
+{
+    $posts = Post::latest()-&gt;get(); 
+//  DB から投稿データ取得
+    return view('posts.index', compact('posts')); //  画面に渡す
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,16 +690,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -705,29 +750,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,18 +953,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBF53BCE-3FB7-46E9-BFAA-491203AAC0F0}" name="テーブル1" displayName="テーブル1" ref="D7:F12" totalsRowShown="0">
-  <autoFilter ref="D7:F12" xr:uid="{DBF53BCE-3FB7-46E9-BFAA-491203AAC0F0}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4EDF06C8-E14A-49D9-B59B-6B7D3628F877}" name="項目"/>
-    <tableColumn id="2" xr3:uid="{1E16F766-AA5E-44C6-8824-1200F94A9C28}" name="型"/>
-    <tableColumn id="3" xr3:uid="{40C7F05B-79C8-4AAD-B2BE-6567C1898195}" name="説明"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,79 +1218,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA3BC7B-F0A7-4E94-8D7F-70F3B57538AD}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:BF14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:58" ht="18.75" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="2:58" ht="18.75" customHeight="1">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="5" spans="2:58">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="2:58">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+    </row>
+    <row r="7" spans="2:58">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="9" spans="2:58">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="2:58">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:58">
+      <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:58">
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:58">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:58">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E3"/>
+  <mergeCells count="10">
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:BF6"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1102,455 +1427,1215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628B35C5-2DD9-48D1-B6FD-7B3EEA201EE1}">
-  <dimension ref="B2:H66"/>
+  <dimension ref="B2:BD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:16" ht="18.75" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="2:16" ht="18.75" customHeight="1">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="C6" s="2" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="D7" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="D7" s="5"/>
+      <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="D8" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="D8" s="5"/>
+      <c r="E8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="D9" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="D9" s="5"/>
+      <c r="E9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="D10" t="s">
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="D10" s="5"/>
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="D11" t="s">
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="D11" s="5"/>
+      <c r="E11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="D12" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="D12" s="5"/>
+      <c r="E12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="D15" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="4:8">
-      <c r="D17" t="s">
+      <c r="J15" s="1"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="5:26">
+      <c r="E17" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="4:8">
-      <c r="D18" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="5:26">
+      <c r="E18" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="4:8">
-      <c r="D19" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="5:26" ht="18.75" customHeight="1">
+      <c r="E19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+    </row>
+    <row r="20" spans="5:26">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+    </row>
+    <row r="21" spans="5:26">
+      <c r="E21" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="4:8">
-      <c r="D21" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="5:26">
+      <c r="E22" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="4:8">
-      <c r="D22" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="5:26" ht="18.75" customHeight="1">
+      <c r="E23" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="4:8" ht="18.75" customHeight="1">
-      <c r="D23" s="5" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" t="s">
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+    </row>
+    <row r="24" spans="5:26">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="5:26">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="5:26">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="5:26">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="5:26">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="5:26">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="5:26">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="5:26">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="5:26">
+      <c r="E32" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="4:8">
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="4:8">
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="4:8">
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="4:8">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="4:8">
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="4:8">
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="4:8">
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="32" spans="4:8">
-      <c r="D32" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="2:56">
+      <c r="E33" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="D33" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="2:56">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:56">
+      <c r="B35" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="K35" t="s">
         <v>45</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="2:56">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="AW36" s="13"/>
+      <c r="AX36" s="13"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="13"/>
+      <c r="BA36" s="13"/>
+      <c r="BB36" s="13"/>
+      <c r="BC36" s="13"/>
+      <c r="BD36" s="13"/>
+    </row>
+    <row r="37" spans="2:56">
+      <c r="E37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="2:56">
+      <c r="E38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="2:56">
+      <c r="E39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+    </row>
+    <row r="40" spans="2:56">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:56">
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="D38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="C41" s="2">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+    </row>
+    <row r="42" spans="2:56">
+      <c r="E42" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" spans="2:56">
+      <c r="E43" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+    </row>
+    <row r="44" spans="2:56">
+      <c r="E44" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+    </row>
+    <row r="45" spans="2:56">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="2:56">
+      <c r="E46" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="D46" t="s">
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="2:56" ht="18.75" customHeight="1">
+      <c r="E47" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="D47" s="5" t="s">
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+    </row>
+    <row r="48" spans="2:56">
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" t="s">
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+    </row>
+    <row r="49" spans="4:33">
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" t="s">
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+    </row>
+    <row r="50" spans="4:33">
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="4:33">
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="4:8">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" t="s">
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+    </row>
+    <row r="52" spans="4:33">
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="4:33">
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="4:33">
+      <c r="E54" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="4:8">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="4:8">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" t="s">
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="4:33" ht="18.75" customHeight="1">
+      <c r="E55" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="4:8">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="54" spans="4:8">
-      <c r="D54" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="4:8" ht="18.75" customHeight="1">
-      <c r="D55" s="6" t="s">
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+    </row>
+    <row r="56" spans="4:33">
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" t="s">
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+    </row>
+    <row r="57" spans="4:33">
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="4:8">
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" t="s">
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+    </row>
+    <row r="58" spans="4:33">
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="4:8">
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" t="s">
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+    </row>
+    <row r="59" spans="4:33">
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="4:33">
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="4:8">
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8">
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="4:8">
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8">
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="4:8">
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="4:8">
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="4:8">
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="4:7">
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="4:7">
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" spans="4:33">
+      <c r="D61" s="3"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+    </row>
+    <row r="62" spans="4:33">
+      <c r="D62" s="3"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+    </row>
+    <row r="63" spans="4:33">
+      <c r="D63" s="3"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+    </row>
+    <row r="64" spans="4:33">
+      <c r="D64" s="3"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+    </row>
+    <row r="65" spans="4:12">
+      <c r="D65" s="3"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="4:12">
+      <c r="D66" s="3"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+    </row>
+    <row r="67" spans="4:12">
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="68" spans="4:12">
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+    </row>
+    <row r="69" spans="4:12">
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D47:G52"/>
-    <mergeCell ref="D55:G66"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="D23:G30"/>
+  <mergeCells count="56">
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="E23:K31"/>
+    <mergeCell ref="L23:Z23"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E18:R18"/>
+    <mergeCell ref="E19:X20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="K36:BD36"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="E37:M37"/>
+    <mergeCell ref="E38:W38"/>
+    <mergeCell ref="E39:AI39"/>
+    <mergeCell ref="E42:Q42"/>
+    <mergeCell ref="E43:AB43"/>
+    <mergeCell ref="E44:AB44"/>
+    <mergeCell ref="E46:L46"/>
+    <mergeCell ref="E47:L53"/>
+    <mergeCell ref="M47:W47"/>
+    <mergeCell ref="M48:R48"/>
+    <mergeCell ref="M49:W49"/>
+    <mergeCell ref="M51:X51"/>
+    <mergeCell ref="E54:L54"/>
+    <mergeCell ref="E55:L69"/>
+    <mergeCell ref="M55:Z55"/>
+    <mergeCell ref="M56:AG56"/>
+    <mergeCell ref="M57:U57"/>
+    <mergeCell ref="M58:R58"/>
+    <mergeCell ref="M60:X60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1558,14 +2643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
